--- a/接口文档/收货地址api/收货地址_app.xlsx
+++ b/接口文档/收货地址api/收货地址_app.xlsx
@@ -96,6 +96,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -142,6 +148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -188,6 +200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -234,6 +252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -280,6 +304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -326,6 +356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -372,6 +408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -418,6 +460,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -464,6 +512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -510,6 +564,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -556,6 +616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -602,6 +668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -655,6 +727,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -669,6 +747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -712,6 +796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -755,6 +845,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -798,6 +894,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -841,6 +943,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -884,6 +992,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -927,6 +1041,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -970,6 +1090,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -1013,6 +1139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -1056,6 +1188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -1099,6 +1237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -1142,6 +1286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -1249,8 +1399,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1316,21 +1466,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1339,10 +1474,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1368,6 +1518,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1382,53 +1547,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,7 +1577,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,7 +1600,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1499,13 +1649,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,79 +1805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,67 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,36 +1958,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1864,27 +1984,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1904,6 +2004,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1912,10 +2062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1924,16 +2074,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1943,120 +2093,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2134,10 +2284,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2883,7 +3033,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" ht="17.25" spans="1:5">
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="13"/>
       <c r="B10" s="26" t="s">
         <v>22</v>
@@ -3003,58 +3153,58 @@
     </row>
     <row r="24" ht="17.25" customHeight="1"/>
     <row r="25" ht="21" customHeight="1" spans="2:2">
-      <c r="B25" s="24"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="24"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="24"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="24"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="24"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="24"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="24"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="24"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="24"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="24"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="24"/>
+      <c r="B35" s="20"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="24"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="24"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="24"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="25"/>
+      <c r="B41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3081,7 +3231,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3109,7 +3259,7 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="8"/>
@@ -3307,114 +3457,78 @@
       <c r="B24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
       <c r="B25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="24"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="24"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="24"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="24"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="24"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="24"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="24"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="24"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="24"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="24"/>
       <c r="E41" s="2"/>
     </row>
   </sheetData>
@@ -3660,112 +3774,76 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
       <c r="B24" s="20"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
       <c r="B25" s="20"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="24"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="24"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="24"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="24"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="24"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="24"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="24"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="24"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="24"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="24"/>
       <c r="E41" s="2"/>
     </row>
   </sheetData>
@@ -4011,112 +4089,76 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
       <c r="B24" s="20"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
       <c r="B25" s="20"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="24"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="24"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="24"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="24"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="24"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="24"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="24"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="24"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="24"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="24"/>
       <c r="E41" s="2"/>
     </row>
   </sheetData>
@@ -4314,112 +4356,76 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
       <c r="B24" s="20"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
       <c r="B25" s="20"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="24"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="24"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="24"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="24"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="24"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="24"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="24"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="24"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="24"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="24"/>
       <c r="E41" s="2"/>
     </row>
   </sheetData>
